--- a/day-one/idiographic-diary.xlsx
+++ b/day-one/idiographic-diary.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergaskell/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergaskell/Desktop/uos-sced/day-one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD1BD84-AA0E-1C4F-A17C-2942FA9397D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6448A7-D0EE-004B-93A4-005C6D39BB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{DC04942D-4DF5-1646-9096-8869BD22CB67}"/>
   </bookViews>
   <sheets>
-    <sheet name="ERM" sheetId="1" r:id="rId1"/>
+    <sheet name="idiographics" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -166,7 +166,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
